--- a/вариант 2024 2025/ШастинБахтиев/2/27A_18031.xlsx
+++ b/вариант 2024 2025/ШастинБахтиев/2/27A_18031.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,6 +68,726 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$1:$A$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>-0.33272512019483103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.45433257692672302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.68731707503074402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.27692441200564499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.53072083709650197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.89940852009431405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.66901141748367099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.63009905035483404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.37561574260887998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.21505419048813801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5968815856460199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.94211072710770405</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.77359351186348402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55803926248472302</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.21813574289293</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.0190880931983901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.66945415822231E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87735078266885302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.63106108524482</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.5966245192075501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13575889263494401</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.48724974441240498</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3837388584609899E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.93743301216563002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.35249085338194402</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46227876066466</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.89496079962875896</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.50269719899244303</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3299217892593105E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.21509126055983999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.3188268268260199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81579755440861002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.7489748620077701</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.78851935027092</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.2110245597878101E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.0259699097466499</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.6409048963024699</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5951809844628299E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.85981173951255296</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.9277537086501999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4113932677115499</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4113932677115499</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.46875749253389</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5533684241575201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.59812681911499</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.62374105233748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6481803576999301</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6544946184207501</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.65470917721777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7545300466773199</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8088345136100501</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9440083680537601</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.96209370572822</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.96970541587313</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.97891877034438</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0425762268663701</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.0521675102143999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.0903142311603098</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.10832368255672</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1170560433356398</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.25516460321932</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2799720725635901</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2816472633359499</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.2850270932423999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.39798707174057</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.4234784032018899</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6387673191315102</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.6545232708539701</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.7623436509985999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.7728095557539998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.7786043720449398</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.7910680483284902</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.7914561643473301</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.7924116827483698</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.80491843370636</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.82321179784276</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.8541736404604801</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.97513027442348</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.92875968731847</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.2464652599759698</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.6643260184515101</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.3207396501292599</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.3551823985645899</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.8822990863984601</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.67836329019008</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.6322323877359</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.40405687718079</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.66958836639113</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.9005558334303201</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.3922624153374201</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.01463768508175</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6721348662602198</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.9276788890313399</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.15336019624743</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.0802612749867198</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.82295805706244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$B$1:$B$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>1.7286976051060201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77418686211015497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.83181073399505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.50429123422458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.31719050307274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1323191549132801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0253605230567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85794261924112802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6163215561205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54835572026950496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1735767104763202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33409847665633902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0530085444675601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2232708907396099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68718015329448501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20263912192310499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42565988512825198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8545023325851899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.40178435867067</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1006073880474401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.33079484732077</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9869076444024401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.179347599147543</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6070142698562599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23759188952672899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.70495918250546</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.49840792930740602</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1116980758394601</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6114612447572898</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.375902822083791</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35942605639083502</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0755585533783101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.27929265492489</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9783426374728299</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.6099038882075296E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.17324678719103501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23444609583310699</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.44826667992126</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.20991269540080401</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.84208410635161</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.7989049638511103</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.0692796907903901</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.4851539889105201</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.2557220319362097</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2765705054556804</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.6388567859368397</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.6450871255052899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.98277077248044</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8026239690227701</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.88853326624037</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.8361076329171704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.76989586314353</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.9012014092851102</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.5849991563835797</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.4411112663412</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.7095360135622997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.4947094192562602</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.8282215690111601</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.7716671987708299</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.1183074265280499</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.2190253187927702</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.8669261202964904</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.8558519699910501</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.3988375547915299</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.0720544397849903</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.0654755499202802</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0420077889604098</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.4177772873357704</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.7911806767623899</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.2385480068487196</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.6311437259770898</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.2069349551543498</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.8615063837997203</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.4009968550588199</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.0407157661337498</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.4261197039471796</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.5531916378178199</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.6406725401562201</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.8612058518227999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.1149651203127799</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.1593226909029202</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.6547783507923004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.50279525768897</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.6173317037320603</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.8288247087428804</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5539036030883699</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.8135102895466</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7055644565959098</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.5035272884874198</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.2320191126690903</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.0425781322885799</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.4890974006191504</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.4641380065629201</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.4061431164882099</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.2626422241783004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.9404173325442997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="197104384"/>
+        <c:axId val="197098496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="197104384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="197098496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="197098496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="197104384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -115,7 +831,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -150,7 +866,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -327,7 +1043,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -337,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,5 +1832,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>